--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846660.2680264118</v>
+        <v>844081.0548087313</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.09783716712694</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>115.8172619072644</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.5096470415873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.04850317047373</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>35.11773277699078</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>18.90418109991384</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>38.38400101269283</v>
       </c>
       <c r="X7" t="n">
-        <v>112.6310108153212</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>294.9161656660184</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>322.8737907318388</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>174.0280920178097</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.6502039420205</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329758</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>73.96134946439142</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0386459061991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>7.018581172450055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>16.01241826978107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060374</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.787132650397</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>13.72582864853715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>71.7968702969101</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605715943</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.03063761899524</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>163.9171048773183</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000787</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.144681024959</v>
+        <v>1283.306917621956</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.144681024959</v>
+        <v>1265.026274018797</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.144681024959</v>
+        <v>1265.026274018797</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>468.2521166309452</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>618.0118203892162</v>
+        <v>455.1003844723683</v>
       </c>
       <c r="L2" t="n">
-        <v>855.6346016074082</v>
+        <v>692.7231656905578</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.657811227302</v>
+        <v>1130.75082092405</v>
       </c>
       <c r="N2" t="n">
-        <v>1802.132917462887</v>
+        <v>1436.225927159633</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779522</v>
+        <v>2077.249136779527</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2277.553464068628</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2377.974895202418</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2377.974895202418</v>
       </c>
       <c r="V2" t="n">
-        <v>1793.271146240432</v>
+        <v>2046.912007858847</v>
       </c>
       <c r="W2" t="n">
-        <v>1676.284013000771</v>
+        <v>2046.912007858847</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.284013000771</v>
+        <v>1673.446249597767</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.144681024959</v>
+        <v>1283.306917621956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>77.11538214994989</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>198.5384744202275</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>408.1293476730567</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.200821018973</v>
+        <v>874.6572826117749</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1515.680492231669</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2144.409140067088</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.2018833265776</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="C4" t="n">
-        <v>459.2018833265776</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="D4" t="n">
-        <v>309.0852439142418</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="E4" t="n">
-        <v>309.0852439142418</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="F4" t="n">
-        <v>309.0852439142418</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G4" t="n">
-        <v>309.0852439142418</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3651553648271</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1193.54224870256</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>991.0700018628613</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780056</v>
+        <v>766.6588426382993</v>
       </c>
       <c r="U4" t="n">
-        <v>679.9944624701077</v>
+        <v>477.5222156304014</v>
       </c>
       <c r="V4" t="n">
-        <v>679.9944624701077</v>
+        <v>477.5222156304014</v>
       </c>
       <c r="W4" t="n">
-        <v>679.9944624701077</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X4" t="n">
-        <v>679.9944624701077</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y4" t="n">
-        <v>459.2018833265776</v>
+        <v>233.4483201530595</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>933.1596152839984</v>
+        <v>833.4399525121066</v>
       </c>
       <c r="C5" t="n">
-        <v>933.1596152839984</v>
+        <v>833.4399525121066</v>
       </c>
       <c r="D5" t="n">
-        <v>933.1596152839984</v>
+        <v>475.1742539053561</v>
       </c>
       <c r="E5" t="n">
-        <v>547.3713626857541</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F5" t="n">
-        <v>136.3854578961465</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4580,7 +4580,7 @@
         <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645558</v>
@@ -4589,28 +4589,28 @@
         <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.75945534812</v>
+        <v>1983.64488281312</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.75945534812</v>
+        <v>1610.17912455204</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.75945534812</v>
+        <v>1220.039792576228</v>
       </c>
     </row>
     <row r="6">
@@ -4629,34 +4629,34 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>797.9970924135757</v>
+        <v>942.9699568457232</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.302981905901</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.7760440609304</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="C7" t="n">
-        <v>219.7760440609304</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4753,22 +4753,22 @@
         <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916873</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>804.6103767213843</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W7" t="n">
-        <v>515.1932066844238</v>
+        <v>797.5885722746133</v>
       </c>
       <c r="X7" t="n">
-        <v>401.42450889117</v>
+        <v>569.5990213765959</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.42450889117</v>
+        <v>348.8064422330658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1885.464120536335</v>
+        <v>1095.862611995973</v>
       </c>
       <c r="C8" t="n">
-        <v>1516.501603595923</v>
+        <v>1095.862611995973</v>
       </c>
       <c r="D8" t="n">
-        <v>1158.235904989173</v>
+        <v>737.5969133892224</v>
       </c>
       <c r="E8" t="n">
-        <v>1158.235904989173</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>747.2500001995654</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
         <v>421.1148580461929</v>
@@ -4799,55 +4799,55 @@
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135505</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502979</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2212.236357502979</v>
       </c>
       <c r="W8" t="n">
-        <v>2258.929878797415</v>
+        <v>1859.467702232864</v>
       </c>
       <c r="X8" t="n">
-        <v>1885.464120536335</v>
+        <v>1486.001943971785</v>
       </c>
       <c r="Y8" t="n">
-        <v>1885.464120536335</v>
+        <v>1095.862611995973</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644004</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856726</v>
+        <v>1219.783862516112</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8288664011729</v>
+        <v>220.7360382507267</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8926834732661</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -4990,22 +4990,22 @@
         <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701828</v>
+        <v>1274.748052626706</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.599429701828</v>
+        <v>985.6302756371043</v>
       </c>
       <c r="V10" t="n">
-        <v>1227.599429701828</v>
+        <v>730.9457874312175</v>
       </c>
       <c r="W10" t="n">
-        <v>938.1822596648676</v>
+        <v>441.5286173942568</v>
       </c>
       <c r="X10" t="n">
-        <v>710.1927087668503</v>
+        <v>441.5286173942568</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.8288664011729</v>
+        <v>220.7360382507267</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1917.843225738551</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.88070879814</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.615010191389</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>804.826757593145</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8408528035375</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035375</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420321</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234595</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3751.879698653249</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3751.879698653249</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3420.816811309679</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3068.048156039565</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2694.582397778485</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2304.443065802673</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246919</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104395</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971146</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.813225539884</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>778.8770426119771</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="D13" t="n">
-        <v>628.7604031996414</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551107</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551107</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101152</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1935.094986101152</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.410497895265</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1390.993327858305</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.003776960287</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>947.813225539884</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>791.784837118582</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.4721904516375</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C16" t="n">
-        <v>781.5360075237306</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113948</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>414.0052414811792</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>267.1152939832689</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>99.90109915784774</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>99.90109915784774</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.83764708305</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397777</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.07694519189</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1580.902785323425</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>1352.913234425407</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.120655281877</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925215</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122183</v>
+        <v>114.9565346495162</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557276</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277363</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859673</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327645</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257313</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630042</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557278</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278209</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,34 +6838,34 @@
         <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911439</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835326</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711968</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888036</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2411.57860113683</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2228.723766791735</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2009.122301814676</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1720.047075158874</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.580456911439</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.9279362553159</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230629</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230629</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2098.535416025753</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855556</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>164.5570059766105</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>143.3909986625177</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.603020508346</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159829</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>204.6347509527604</v>
       </c>
       <c r="N3" t="n">
-        <v>84.69108553970699</v>
+        <v>359.2821607945085</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200.7458546176081</v>
+        <v>347.1830914177571</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.7491560325405</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326896</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>191.4694788103603</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>256.7871481632755</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.145099287022</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803177</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.8027399149865</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726066</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.546007445895668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.78599557195896</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>270.51058006681</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516652</v>
+        <v>144.5956654067396</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.7370056418718</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>211.9838267405</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124964</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.34460909112659</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53.48834544996993</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228761</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908383.1842849165</v>
+        <v>908383.1842849161</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988772.215941699</v>
+        <v>988772.2159416993</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>994244.0803053686</v>
+        <v>994244.0803053688</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>994244.0803053688</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>994244.0803053689</v>
+        <v>994244.0803053688</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>994244.0803053689</v>
+        <v>994244.0803053686</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
@@ -26323,13 +26323,13 @@
         <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099659</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
@@ -26347,13 +26347,13 @@
         <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="O2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="O2" t="n">
-        <v>423751.9648372531</v>
-      </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898963</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.545156912</v>
+        <v>318590.545156911</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987698</v>
+        <v>83206.75751987663</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848876</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26430,34 +26430,34 @@
         <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695057</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214718</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-757766.9204088006</v>
+        <v>-757766.9204087975</v>
       </c>
       <c r="C6" t="n">
-        <v>35734.7253020988</v>
+        <v>35734.72530209486</v>
       </c>
       <c r="D6" t="n">
-        <v>208499.0850919912</v>
+        <v>208499.0850919911</v>
       </c>
       <c r="E6" t="n">
-        <v>-23918.18892210323</v>
+        <v>-24128.15316594681</v>
       </c>
       <c r="F6" t="n">
-        <v>148462.4565805211</v>
+        <v>148416.5515849541</v>
       </c>
       <c r="G6" t="n">
-        <v>305174.7182460716</v>
+        <v>305139.9803206366</v>
       </c>
       <c r="H6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562152</v>
       </c>
       <c r="I6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="J6" t="n">
-        <v>146927.9376556029</v>
+        <v>146893.1997301672</v>
       </c>
       <c r="K6" t="n">
-        <v>316341.9544816509</v>
+        <v>316307.2165562154</v>
       </c>
       <c r="L6" t="n">
-        <v>316341.9544816512</v>
+        <v>316307.2165562153</v>
       </c>
       <c r="M6" t="n">
-        <v>233135.196961774</v>
+        <v>233100.4590363387</v>
       </c>
       <c r="N6" t="n">
-        <v>272559.5479231623</v>
+        <v>272524.8099977259</v>
       </c>
       <c r="O6" t="n">
-        <v>313318.6565044261</v>
+        <v>313283.9185789908</v>
       </c>
       <c r="P6" t="n">
-        <v>316341.954481651</v>
+        <v>316307.2165562153</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086488</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522381</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447119</v>
+        <v>272.4638768447111</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362734024</v>
+        <v>333.890136273401</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734024</v>
+        <v>333.890136273401</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734024</v>
+        <v>333.890136273401</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173572</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>347.1750546038806</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>233.4237068101486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>10.26972945789888</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.4744951661173</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>346.812637295271</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>392.6208422819555</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>248.1389973238982</v>
       </c>
       <c r="X7" t="n">
-        <v>113.0786445737159</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>87.01420440624338</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>88.65123265003058</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>46.67713669562877</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.93444941007425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31534,16 +31534,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31616,7 +31616,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31631,7 +31631,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31677,7 +31677,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,7 +31686,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979552</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202556</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012545</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>361.601338948861</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>225.4828684302377</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>327.9863110927676</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>442.4521770035279</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692753</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>25.57123921932339</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806355</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>471.2403383219377</v>
       </c>
       <c r="N3" t="n">
-        <v>372.9071162804475</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>635.0794422579989</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289981</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34945,19 +34945,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495864</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961896</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>501.0609547350978</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>532.7551050146875</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35173,7 +35173,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
         <v>360.385208115341</v>
@@ -35182,19 +35182,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>491.78457892785</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>626.7930971454225</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297623</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597958</v>
@@ -35343,7 +35343,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458966</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869242</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>223.0469591689868</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,10 +36376,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88662398579324</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
